--- a/pcb/led_jewellery/led_jewellery-top.xlsx
+++ b/pcb/led_jewellery/led_jewellery-top.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -46,10 +46,34 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW1</t>
   </si>
   <si>
     <t xml:space="preserve">SW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW6</t>
   </si>
 </sst>
 </file>
@@ -251,7 +275,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -261,7 +285,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.33"/>
   </cols>
@@ -288,16 +312,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>95.7001</v>
+        <v>97.5342</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-78.4</v>
+        <v>-85.8985</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,16 +329,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>121.4979</v>
+        <v>90.5342</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>-91.1987</v>
+        <v>-101.8988</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,16 +346,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>102.2251</v>
+        <v>97.5342</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-78.4</v>
+        <v>-117.8985</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,16 +363,152 @@
         <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>114.9729</v>
+        <v>128.9978</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>-91.1987</v>
+        <v>-85.8985</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-90</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>121.9978</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-101.8988</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>128.9978</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-117.8985</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>97.5342</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-81.7735</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>90.5342</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-97.7738</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>97.5342</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-113.7735</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>128.9978</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-81.7735</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>121.9978</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-97.7738</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>128.9978</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-113.7735</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
